--- a/data/E(r)_result.xlsx
+++ b/data/E(r)_result.xlsx
@@ -1104,7 +1104,7 @@
         <v>2.75</v>
       </c>
       <c r="D2">
-        <v>2.284854815703152</v>
+        <v>2.279344661673033</v>
       </c>
       <c r="E2">
         <v>2.75</v>
@@ -1124,13 +1124,13 @@
         <v>2.75</v>
       </c>
       <c r="D3">
-        <v>2.399530279666084</v>
+        <v>2.394231840801631</v>
       </c>
       <c r="E3">
-        <v>2.704599165381634</v>
+        <v>2.704307751244089</v>
       </c>
       <c r="F3">
-        <v>0.04540083461836586</v>
+        <v>0.04569224875591082</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1144,13 +1144,13 @@
         <v>2.5</v>
       </c>
       <c r="D4">
-        <v>0.6295926753955072</v>
+        <v>0.6245063343462753</v>
       </c>
       <c r="E4">
-        <v>2.601752597146753</v>
+        <v>2.601472848389045</v>
       </c>
       <c r="F4">
-        <v>-0.1017525971467532</v>
+        <v>-0.1014728483890455</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1164,13 +1164,13 @@
         <v>2.5</v>
       </c>
       <c r="D5">
-        <v>-1.01496095673772</v>
+        <v>-1.019834066725345</v>
       </c>
       <c r="E5">
-        <v>2.284677147379425</v>
+        <v>2.284409126330106</v>
       </c>
       <c r="F5">
-        <v>0.2153228526205746</v>
+        <v>0.2155908736698939</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1184,13 +1184,13 @@
         <v>2.5</v>
       </c>
       <c r="D6">
-        <v>-1.893383846122987</v>
+        <v>-1.898041487987889</v>
       </c>
       <c r="E6">
-        <v>2.303738888463235</v>
+        <v>2.303482718160666</v>
       </c>
       <c r="F6">
-        <v>0.1962611115367645</v>
+        <v>0.1965172818393341</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1204,13 +1204,13 @@
         <v>2.5</v>
       </c>
       <c r="D7">
-        <v>-0.801939508852012</v>
+        <v>-0.8063780033077173</v>
       </c>
       <c r="E7">
-        <v>2.372018327013139</v>
+        <v>2.371774209818075</v>
       </c>
       <c r="F7">
-        <v>0.127981672986861</v>
+        <v>0.1282257901819248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1224,13 +1224,13 @@
         <v>2.5</v>
       </c>
       <c r="D8">
-        <v>0.4209453840638311</v>
+        <v>0.4167314819763845</v>
       </c>
       <c r="E8">
-        <v>2.458526996123511</v>
+        <v>2.458295231508701</v>
       </c>
       <c r="F8">
-        <v>0.04147300387648922</v>
+        <v>0.04170476849129878</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1244,13 +1244,13 @@
         <v>2.5</v>
       </c>
       <c r="D9">
-        <v>0.8354913734865299</v>
+        <v>0.8315095826278984</v>
       </c>
       <c r="E9">
-        <v>2.490952025541759</v>
+        <v>2.490733027044534</v>
       </c>
       <c r="F9">
-        <v>0.009047974458241459</v>
+        <v>0.009266972955466191</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1264,13 +1264,13 @@
         <v>2.5</v>
       </c>
       <c r="D10">
-        <v>0.8652147538164456</v>
+        <v>0.8614749595805549</v>
       </c>
       <c r="E10">
-        <v>2.489836811459905</v>
+        <v>2.489631122776931</v>
       </c>
       <c r="F10">
-        <v>0.01016318854009501</v>
+        <v>0.01036887722306901</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1284,13 +1284,13 @@
         <v>2.5</v>
       </c>
       <c r="D11">
-        <v>0.4540030418086261</v>
+        <v>0.4505177726361609</v>
       </c>
       <c r="E11">
-        <v>2.480970167299474</v>
+        <v>2.480778477494989</v>
       </c>
       <c r="F11">
-        <v>0.01902983270052561</v>
+        <v>0.01922152250501119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1304,13 +1304,13 @@
         <v>2.5</v>
       </c>
       <c r="D12">
-        <v>0.01336214754941167</v>
+        <v>0.01014683463580468</v>
       </c>
       <c r="E12">
-        <v>2.570859918115218</v>
+        <v>2.57068307590497</v>
       </c>
       <c r="F12">
-        <v>-0.07085991811521808</v>
+        <v>-0.07068307590497014</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1324,13 +1324,13 @@
         <v>2.75</v>
       </c>
       <c r="D13">
-        <v>-0.1936287405524872</v>
+        <v>-0.1965555212245285</v>
       </c>
       <c r="E13">
-        <v>2.574600419269613</v>
+        <v>2.57443944633265</v>
       </c>
       <c r="F13">
-        <v>0.1753995807303874</v>
+        <v>0.1755605536673497</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1344,13 +1344,13 @@
         <v>2.75</v>
       </c>
       <c r="D14">
-        <v>0.02543111997486136</v>
+        <v>0.02281481559984755</v>
       </c>
       <c r="E14">
-        <v>2.770648711598617</v>
+        <v>2.770504814857992</v>
       </c>
       <c r="F14">
-        <v>-0.02064871159861736</v>
+        <v>-0.0205048148579916</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1364,13 +1364,13 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>0.01598258313038059</v>
+        <v>0.01370227042940542</v>
       </c>
       <c r="E15">
-        <v>2.778379042072171</v>
+        <v>2.778253624873618</v>
       </c>
       <c r="F15">
-        <v>0.2216209579278288</v>
+        <v>0.2217463751263824</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1384,13 +1384,13 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>-0.3393929422530029</v>
+        <v>-0.3413079948933806</v>
       </c>
       <c r="E16">
-        <v>2.946270888176085</v>
+        <v>2.946165560280864</v>
       </c>
       <c r="F16">
-        <v>0.05372911182391515</v>
+        <v>0.05383443971913593</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1404,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>-0.5825465977562949</v>
+        <v>-0.5840632105853061</v>
       </c>
       <c r="E17">
-        <v>2.918459937123404</v>
+        <v>2.918376523417808</v>
       </c>
       <c r="F17">
-        <v>0.08154006287659632</v>
+        <v>0.08162347658219193</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1424,13 +1424,13 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>-0.6346647909859726</v>
+        <v>-0.6357457398986632</v>
       </c>
       <c r="E18">
-        <v>2.915593436495771</v>
+        <v>2.915533984305573</v>
       </c>
       <c r="F18">
-        <v>0.08440656350422859</v>
+        <v>0.08446601569442658</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1444,13 +1444,13 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>0.1036864689734962</v>
+        <v>0.1030825577567285</v>
       </c>
       <c r="E19">
-        <v>2.961702755793542</v>
+        <v>2.96166954067662</v>
       </c>
       <c r="F19">
-        <v>0.03829724420645819</v>
+        <v>0.03833045932338042</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1464,13 +1464,13 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>-0.568073843626582</v>
+        <v>-0.5681551186274447</v>
       </c>
       <c r="E20">
-        <v>2.919255938600538</v>
+        <v>2.91925146847549</v>
       </c>
       <c r="F20">
-        <v>0.08074406139946211</v>
+        <v>0.08074853152450956</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1484,13 +1484,13 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>-0.5480879080700163</v>
+        <v>-0.5475966816565148</v>
       </c>
       <c r="E21">
-        <v>2.920355165056149</v>
+        <v>2.920382182508892</v>
       </c>
       <c r="F21">
-        <v>0.079644834943851</v>
+        <v>0.07961781749110841</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1504,13 +1504,13 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>-0.8529332496137521</v>
+        <v>-0.8518153842645759</v>
       </c>
       <c r="E22">
-        <v>2.907026171271243</v>
+        <v>2.907087653865448</v>
       </c>
       <c r="F22">
-        <v>0.09297382872875692</v>
+        <v>0.09291234613455224</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1524,13 +1524,13 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>-0.3021361815799928</v>
+        <v>-0.3003333015640486</v>
       </c>
       <c r="E23">
-        <v>2.9297575100131</v>
+        <v>2.929856668413977</v>
       </c>
       <c r="F23">
-        <v>0.07024248998689986</v>
+        <v>0.07014333158602293</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1544,13 +1544,13 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>-0.3285079564639304</v>
+        <v>-0.3259575254697999</v>
       </c>
       <c r="E24">
-        <v>2.925557062394483</v>
+        <v>2.92569733609916</v>
       </c>
       <c r="F24">
-        <v>0.07444293760551668</v>
+        <v>0.07430266390083951</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1564,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>-0.8021365545337389</v>
+        <v>-0.7987720008697075</v>
       </c>
       <c r="E25">
-        <v>2.898132489500644</v>
+        <v>2.898317539952166</v>
       </c>
       <c r="F25">
-        <v>0.1018675104993556</v>
+        <v>0.1016824600478339</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1584,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>-0.9063992289998879</v>
+        <v>-0.9021501227072015</v>
       </c>
       <c r="E26">
-        <v>2.880023042405006</v>
+        <v>2.880256743251104</v>
       </c>
       <c r="F26">
-        <v>0.1199769575949938</v>
+        <v>0.1197432567488961</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1604,13 +1604,13 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>-1.040309623054192</v>
+        <v>-1.03510190955669</v>
       </c>
       <c r="E27">
-        <v>2.865782970732019</v>
+        <v>2.866069394974381</v>
       </c>
       <c r="F27">
-        <v>0.1342170292679814</v>
+        <v>0.1339306050256188</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1624,13 +1624,13 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>-0.3285299761813576</v>
+        <v>-0.3222862713622376</v>
       </c>
       <c r="E28">
-        <v>2.918680851310026</v>
+        <v>2.919024255075077</v>
       </c>
       <c r="F28">
-        <v>0.08131914868997425</v>
+        <v>0.08097574492492265</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1644,13 +1644,13 @@
         <v>3.25</v>
       </c>
       <c r="D29">
-        <v>-0.4000129162253785</v>
+        <v>-0.3926528680738173</v>
       </c>
       <c r="E29">
-        <v>2.928499289607604</v>
+        <v>2.92890409225594</v>
       </c>
       <c r="F29">
-        <v>0.3215007103923959</v>
+        <v>0.32109590774406</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1664,13 +1664,13 @@
         <v>3.5</v>
       </c>
       <c r="D30">
-        <v>-0.06677976619426929</v>
+        <v>-0.05822048839627669</v>
       </c>
       <c r="E30">
-        <v>3.169327112859315</v>
+        <v>3.169797873138205</v>
       </c>
       <c r="F30">
-        <v>0.3306728871406848</v>
+        <v>0.3302021268617952</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1684,13 +1684,13 @@
         <v>3.75</v>
       </c>
       <c r="D31">
-        <v>-0.3504701391357834</v>
+        <v>-0.3406267221888193</v>
       </c>
       <c r="E31">
-        <v>3.376224142347532</v>
+        <v>3.376765530279615</v>
       </c>
       <c r="F31">
-        <v>0.3737758576524679</v>
+        <v>0.3732344697203849</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1704,13 +1704,13 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>0.4192807706929536</v>
+        <v>0.4304946650862007</v>
       </c>
       <c r="E32">
-        <v>3.641060442388112</v>
+        <v>3.641677206579741</v>
       </c>
       <c r="F32">
-        <v>0.3589395576118877</v>
+        <v>0.3583227934202591</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1724,13 +1724,13 @@
         <v>4.25</v>
       </c>
       <c r="D33">
-        <v>0.2576331641686913</v>
+        <v>0.2703046195294156</v>
       </c>
       <c r="E33">
-        <v>3.854669824029278</v>
+        <v>3.855366754074118</v>
       </c>
       <c r="F33">
-        <v>0.395330175970722</v>
+        <v>0.3946332459258821</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1744,13 +1744,13 @@
         <v>4.5</v>
       </c>
       <c r="D34">
-        <v>0.01806570980820155</v>
+        <v>0.03228177613863181</v>
       </c>
       <c r="E34">
-        <v>4.083243614039452</v>
+        <v>4.084025497687626</v>
       </c>
       <c r="F34">
-        <v>0.4167563859605483</v>
+        <v>0.4159745023123742</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1764,13 +1764,13 @@
         <v>4.5</v>
       </c>
       <c r="D35">
-        <v>-0.5076302133720567</v>
+        <v>-0.4917833995504495</v>
       </c>
       <c r="E35">
-        <v>4.265830338264537</v>
+        <v>4.266701913024725</v>
       </c>
       <c r="F35">
-        <v>0.2341696617354634</v>
+        <v>0.2332980869752745</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1784,13 +1784,13 @@
         <v>4.5</v>
       </c>
       <c r="D36">
-        <v>-0.8703772855910508</v>
+        <v>-0.8528154884647421</v>
       </c>
       <c r="E36">
-        <v>4.241066749292491</v>
+        <v>4.242032648134439</v>
       </c>
       <c r="F36">
-        <v>0.2589332507075088</v>
+        <v>0.2579673518655614</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1804,13 +1804,13 @@
         <v>4.5</v>
       </c>
       <c r="D37">
-        <v>-0.6676572253428326</v>
+        <v>-0.6482992102792018</v>
       </c>
       <c r="E37">
-        <v>4.240528852606144</v>
+        <v>4.241593543434644</v>
       </c>
       <c r="F37">
-        <v>0.2594711473938558</v>
+        <v>0.2584064565653561</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1824,13 +1824,13 @@
         <v>4.5</v>
       </c>
       <c r="D38">
-        <v>-1.031687552458038</v>
+        <v>-1.010456305574614</v>
       </c>
       <c r="E38">
-        <v>4.212257184614808</v>
+        <v>4.213424903193396</v>
       </c>
       <c r="F38">
-        <v>0.287742815385192</v>
+        <v>0.2865750968066036</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1844,13 +1844,13 @@
         <v>4.5</v>
       </c>
       <c r="D39">
-        <v>-0.9180073876878581</v>
+        <v>-0.894831460159029</v>
       </c>
       <c r="E39">
-        <v>4.222634593677168</v>
+        <v>4.223909269691253</v>
       </c>
       <c r="F39">
-        <v>0.2773654063228319</v>
+        <v>0.2760907303087468</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1864,13 +1864,13 @@
         <v>4.5</v>
       </c>
       <c r="D40">
-        <v>-1.386879114845829</v>
+        <v>-1.361694097295008</v>
       </c>
       <c r="E40">
-        <v>4.17897164868348</v>
+        <v>4.180356824648775</v>
       </c>
       <c r="F40">
-        <v>0.32102835131652</v>
+        <v>0.3196431753512252</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1884,13 +1884,13 @@
         <v>4.5</v>
       </c>
       <c r="D41">
-        <v>-1.29287086411054</v>
+        <v>-1.26562099604941</v>
       </c>
       <c r="E41">
-        <v>4.15664210247392</v>
+        <v>4.158140845217282</v>
       </c>
       <c r="F41">
-        <v>0.3433578975260803</v>
+        <v>0.3418591547827177</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1904,13 +1904,13 @@
         <v>4.5</v>
       </c>
       <c r="D42">
-        <v>-0.9807502171784499</v>
+        <v>-0.9673906904866136</v>
       </c>
       <c r="E42">
-        <v>4.142871238055185</v>
+        <v>4.143606012023236</v>
       </c>
       <c r="F42">
-        <v>0.3571287619448151</v>
+        <v>0.3563939879767641</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1924,13 +1924,13 @@
         <v>4.5</v>
       </c>
       <c r="D43">
-        <v>-0.8905223158826914</v>
+        <v>-0.6592739991725161</v>
       </c>
       <c r="E43">
-        <v>4.140271272626452</v>
+        <v>4.152989930045512</v>
       </c>
       <c r="F43">
-        <v>0.3597287273735477</v>
+        <v>0.3470100699544876</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1944,13 +1944,13 @@
         <v>4.5</v>
       </c>
       <c r="D44">
-        <v>-0.440679603211791</v>
+        <v>-0.1560097178966657</v>
       </c>
       <c r="E44">
-        <v>4.154012621823352</v>
+        <v>4.169669465515684</v>
       </c>
       <c r="F44">
-        <v>0.3459873781766483</v>
+        <v>0.3303305344843164</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1964,13 +1964,13 @@
         <v>4.5</v>
       </c>
       <c r="D45">
-        <v>-0.7299315276899421</v>
+        <v>-0.3555390108830991</v>
       </c>
       <c r="E45">
-        <v>4.146353765977053</v>
+        <v>4.166945354401429</v>
       </c>
       <c r="F45">
-        <v>0.3536462340229471</v>
+        <v>0.3330546455985708</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1984,13 +1984,13 @@
         <v>4.5</v>
       </c>
       <c r="D46">
-        <v>0.4204426164455377</v>
+        <v>0.4268184648961615</v>
       </c>
       <c r="E46">
-        <v>4.216499343904505</v>
+        <v>4.216850015569289</v>
       </c>
       <c r="F46">
-        <v>0.2835006560954954</v>
+        <v>0.283149984430711</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2004,13 +2004,13 @@
         <v>4.5</v>
       </c>
       <c r="D47">
-        <v>0.5834692348081205</v>
+        <v>0.3651893148319374</v>
       </c>
       <c r="E47">
-        <v>4.230965807914447</v>
+        <v>4.218960412315757</v>
       </c>
       <c r="F47">
-        <v>0.2690341920855532</v>
+        <v>0.2810395876842433</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2024,13 +2024,13 @@
         <v>4.75</v>
       </c>
       <c r="D48">
-        <v>1.178371856823279</v>
+        <v>0.6711927655256744</v>
       </c>
       <c r="E48">
-        <v>4.27743545212528</v>
+        <v>4.249540602103911</v>
       </c>
       <c r="F48">
-        <v>0.47256454787472</v>
+        <v>0.5004593978960887</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2044,13 +2044,13 @@
         <v>4.75</v>
       </c>
       <c r="D49">
-        <v>0.5547197563521955</v>
+        <v>0.121508380865798</v>
       </c>
       <c r="E49">
-        <v>4.500009586599371</v>
+        <v>4.47618296094762</v>
       </c>
       <c r="F49">
-        <v>0.2499904134006288</v>
+        <v>0.2738170390523802</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2064,13 +2064,13 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <v>0.1103116750617694</v>
+        <v>-0.00195183736471094</v>
       </c>
       <c r="E50">
-        <v>4.468692142128397</v>
+        <v>4.462517648944941</v>
       </c>
       <c r="F50">
-        <v>0.5313078578716031</v>
+        <v>0.5374823510550595</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2084,13 +2084,13 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>-0.05943207207081969</v>
+        <v>0.04065505956676319</v>
       </c>
       <c r="E51">
-        <v>4.717606236036105</v>
+        <v>4.723111028276173</v>
       </c>
       <c r="F51">
-        <v>0.2823937639638947</v>
+        <v>0.2768889717238272</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2104,13 +2104,13 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>0.2804522535437393</v>
+        <v>0.4282338488818205</v>
       </c>
       <c r="E52">
-        <v>4.780987373944906</v>
+        <v>4.7891153616885</v>
       </c>
       <c r="F52">
-        <v>0.2190126260550942</v>
+        <v>0.2108846383114997</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2124,13 +2124,13 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>0.7816724116955776</v>
+        <v>0.9935549080672068</v>
       </c>
       <c r="E53">
-        <v>4.831241982643257</v>
+        <v>4.842895519943696</v>
       </c>
       <c r="F53">
-        <v>0.1687580173567431</v>
+        <v>0.1571044800563035</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2144,13 +2144,13 @@
         <v>5.25</v>
       </c>
       <c r="D54">
-        <v>1.267806646152803</v>
+        <v>1.470117578727237</v>
       </c>
       <c r="E54">
-        <v>4.926041865538404</v>
+        <v>4.937168966829998</v>
       </c>
       <c r="F54">
-        <v>0.3239581344615958</v>
+        <v>0.3128310331700019</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2164,13 +2164,13 @@
         <v>5.25</v>
       </c>
       <c r="D55">
-        <v>2.279099499438164</v>
+        <v>2.104749707571152</v>
       </c>
       <c r="E55">
-        <v>5.2667254724691</v>
+        <v>5.257136233916414</v>
       </c>
       <c r="F55">
-        <v>-0.0167254724690995</v>
+        <v>-0.00713623391641427</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2184,13 +2184,13 @@
         <v>5.25</v>
       </c>
       <c r="D56">
-        <v>2.734106633218314</v>
+        <v>2.446143219207997</v>
       </c>
       <c r="E56">
-        <v>5.313750864827007</v>
+        <v>5.29791287705644</v>
       </c>
       <c r="F56">
-        <v>-0.06375086482700709</v>
+        <v>-0.0479128770564401</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2204,13 +2204,13 @@
         <v>5.5</v>
       </c>
       <c r="D57">
-        <v>3.285826570494432</v>
+        <v>3.073534123219357</v>
       </c>
       <c r="E57">
-        <v>5.408720461377195</v>
+        <v>5.397044376777066</v>
       </c>
       <c r="F57">
-        <v>0.09127953862280513</v>
+        <v>0.1029556232229343</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2224,13 +2224,13 @@
         <v>5.5</v>
       </c>
       <c r="D58">
-        <v>2.601710019949799</v>
+        <v>2.756484222672473</v>
       </c>
       <c r="E58">
-        <v>5.538594051097238</v>
+        <v>5.547106632246986</v>
       </c>
       <c r="F58">
-        <v>-0.03859405109723824</v>
+        <v>-0.04710663224698575</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2244,13 +2244,13 @@
         <v>5.75</v>
       </c>
       <c r="D59">
-        <v>3.267983732657864</v>
+        <v>3.047955805994285</v>
       </c>
       <c r="E59">
-        <v>5.577989105296183</v>
+        <v>5.565887569329686</v>
       </c>
       <c r="F59">
-        <v>0.172010894703817</v>
+        <v>0.1841124306703144</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>3.233164985674364</v>
+        <v>2.816252956165766</v>
       </c>
       <c r="E60">
-        <v>5.87763657421209</v>
+        <v>5.854706412589118</v>
       </c>
       <c r="F60">
-        <v>0.1223634257879098</v>
+        <v>0.1452935874108823</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2284,13 +2284,13 @@
         <v>6.25</v>
       </c>
       <c r="D61">
-        <v>3.200273560397715</v>
+        <v>2.806770956684534</v>
       </c>
       <c r="E61">
-        <v>6.151265045821874</v>
+        <v>6.129622402617649</v>
       </c>
       <c r="F61">
-        <v>0.09873495417812617</v>
+        <v>0.1203775973823511</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2304,13 +2304,13 @@
         <v>6.5</v>
       </c>
       <c r="D62">
-        <v>2.722061896741401</v>
+        <v>2.546047992988054</v>
       </c>
       <c r="E62">
-        <v>6.335088404320777</v>
+        <v>6.325407639614343</v>
       </c>
       <c r="F62">
-        <v>0.1649115956792233</v>
+        <v>0.174592360385657</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2324,13 +2324,13 @@
         <v>6.5</v>
       </c>
       <c r="D63">
-        <v>2.245217599256932</v>
+        <v>2.178980478291859</v>
       </c>
       <c r="E63">
-        <v>6.491486967959131</v>
+        <v>6.487843926306052</v>
       </c>
       <c r="F63">
-        <v>0.008513032040869284</v>
+        <v>0.01215607369394789</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2344,13 +2344,13 @@
         <v>6.5</v>
       </c>
       <c r="D64">
-        <v>1.94193578401114</v>
+        <v>1.946174524908972</v>
       </c>
       <c r="E64">
-        <v>6.436993968120613</v>
+        <v>6.437227098869994</v>
       </c>
       <c r="F64">
-        <v>0.0630060318793868</v>
+        <v>0.062772901130006</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2364,13 +2364,13 @@
         <v>6.5</v>
       </c>
       <c r="D65">
-        <v>0.8873417895654434</v>
+        <v>1.066647323883974</v>
       </c>
       <c r="E65">
-        <v>6.3205537984261</v>
+        <v>6.330415602813619</v>
       </c>
       <c r="F65">
-        <v>0.1794462015739002</v>
+        <v>0.1695843971863811</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2384,13 +2384,13 @@
         <v>6.5</v>
       </c>
       <c r="D66">
-        <v>0.3369823157825635</v>
+        <v>0.6249969741192629</v>
       </c>
       <c r="E66">
-        <v>6.249721527368042</v>
+        <v>6.26556233357656</v>
       </c>
       <c r="F66">
-        <v>0.2502784726319582</v>
+        <v>0.2344376664234398</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2404,13 +2404,13 @@
         <v>6.25</v>
       </c>
       <c r="D67">
-        <v>-0.4625750220330183</v>
+        <v>-0.02432181841554026</v>
       </c>
       <c r="E67">
-        <v>6.150058373788185</v>
+        <v>6.174162299987146</v>
       </c>
       <c r="F67">
-        <v>0.09994162621181513</v>
+        <v>0.07583770001285384</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2424,13 +2424,13 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>-1.124246775927151</v>
+        <v>-0.7103690737441326</v>
       </c>
       <c r="E68">
-        <v>5.857478927324006</v>
+        <v>5.880242200944073</v>
       </c>
       <c r="F68">
-        <v>0.1425210726759936</v>
+        <v>0.1197577990559271</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2444,13 +2444,13 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <v>-1.799272175986122</v>
+        <v>-1.485855169356842</v>
       </c>
       <c r="E69">
-        <v>5.579290030320763</v>
+        <v>5.596527965685373</v>
       </c>
       <c r="F69">
-        <v>-0.5792900303207631</v>
+        <v>-0.5965279656853735</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2464,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>-1.846992953324911</v>
+        <v>-1.646903053463866</v>
       </c>
       <c r="E70">
-        <v>4.67841538756713</v>
+        <v>4.689420332059488</v>
       </c>
       <c r="F70">
-        <v>-0.6784153875671297</v>
+        <v>-0.6894203320594876</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2484,13 +2484,13 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>-2.423029285222</v>
+        <v>-2.590987021372104</v>
       </c>
       <c r="E71">
-        <v>3.68248338931279</v>
+        <v>3.673245713824534</v>
       </c>
       <c r="F71">
-        <v>-0.68248338931279</v>
+        <v>-0.6732457138245342</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2504,13 +2504,13 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>-2.99841911701586</v>
+        <v>-3.302101654080758</v>
       </c>
       <c r="E72">
-        <v>2.747774448564127</v>
+        <v>2.731071909025558</v>
       </c>
       <c r="F72">
-        <v>-0.7477744485641269</v>
+        <v>-0.7310719090255575</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2524,13 +2524,13 @@
         <v>1.25</v>
       </c>
       <c r="D73">
-        <v>-3.399493538199572</v>
+        <v>-3.827652287436312</v>
       </c>
       <c r="E73">
-        <v>1.824027855399024</v>
+        <v>1.800479124191003</v>
       </c>
       <c r="F73">
-        <v>-0.5740278553990237</v>
+        <v>-0.550479124191003</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2544,13 +2544,13 @@
         <v>1.25</v>
       </c>
       <c r="D74">
-        <v>-2.880505478155282</v>
+        <v>-3.104132654483482</v>
       </c>
       <c r="E74">
-        <v>1.12319719870146</v>
+        <v>1.110897704003408</v>
       </c>
       <c r="F74">
-        <v>0.1268028012985405</v>
+        <v>0.1391022959965915</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2564,13 +2564,13 @@
         <v>1.25</v>
       </c>
       <c r="D75">
-        <v>-2.511078494911523</v>
+        <v>-2.534739617427118</v>
       </c>
       <c r="E75">
-        <v>1.153140682779866</v>
+        <v>1.151839321041508</v>
       </c>
       <c r="F75">
-        <v>0.09685931722013419</v>
+        <v>0.0981606789584919</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2584,13 +2584,13 @@
         <v>1.25</v>
       </c>
       <c r="D76">
-        <v>-2.224752609236269</v>
+        <v>-2.262830485683409</v>
       </c>
       <c r="E76">
-        <v>1.183326106492005</v>
+        <v>1.181231823287412</v>
       </c>
       <c r="F76">
-        <v>0.06667389350799535</v>
+        <v>0.06876817671258806</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2604,13 +2604,13 @@
         <v>1.25</v>
       </c>
       <c r="D77">
-        <v>-2.039081089475481</v>
+        <v>-1.897761154834399</v>
       </c>
       <c r="E77">
-        <v>1.214850540078849</v>
+        <v>1.222623136484108</v>
       </c>
       <c r="F77">
-        <v>0.03514945992115148</v>
+        <v>0.02737686351589197</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2624,13 +2624,13 @@
         <v>1.25</v>
       </c>
       <c r="D78">
-        <v>-2.008033516823815</v>
+        <v>-1.748482691921094</v>
       </c>
       <c r="E78">
-        <v>1.22205815657469</v>
+        <v>1.236333451944339</v>
       </c>
       <c r="F78">
-        <v>0.02794184342531025</v>
+        <v>0.01366654805566059</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2644,13 +2644,13 @@
         <v>1.25</v>
       </c>
       <c r="D79">
-        <v>-2.051986706666842</v>
+        <v>-1.557552587533806</v>
       </c>
       <c r="E79">
-        <v>1.232015731133323</v>
+        <v>1.25920960768564</v>
       </c>
       <c r="F79">
-        <v>0.01798426886667692</v>
+        <v>-0.009209607685640053</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2664,13 +2664,13 @@
         <v>1.25</v>
       </c>
       <c r="D80">
-        <v>-1.494666107819143</v>
+        <v>-1.136442075585808</v>
       </c>
       <c r="E80">
-        <v>1.273668364069947</v>
+        <v>1.29337068584278</v>
       </c>
       <c r="F80">
-        <v>-0.0236683640699471</v>
+        <v>-0.04337068584278048</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2684,13 +2684,13 @@
         <v>1.25</v>
       </c>
       <c r="D81">
-        <v>-0.6837641168726982</v>
+        <v>-0.5295117345283984</v>
       </c>
       <c r="E81">
-        <v>1.355392973572002</v>
+        <v>1.363876854600938</v>
       </c>
       <c r="F81">
-        <v>-0.1053929735720016</v>
+        <v>-0.1138768546009381</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2704,13 +2704,13 @@
         <v>1.5</v>
       </c>
       <c r="D82">
-        <v>0.02635077772668026</v>
+        <v>0.004064397636582839</v>
       </c>
       <c r="E82">
-        <v>1.394449292774967</v>
+        <v>1.393223541870012</v>
       </c>
       <c r="F82">
-        <v>0.1055507072250326</v>
+        <v>0.1067764581299879</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2724,13 +2724,13 @@
         <v>1.75</v>
       </c>
       <c r="D83">
-        <v>0.868688608291901</v>
+        <v>0.6429959921131712</v>
       </c>
       <c r="E83">
-        <v>1.663277873456054</v>
+        <v>1.650864779566224</v>
       </c>
       <c r="F83">
-        <v>0.08672212654394551</v>
+        <v>0.09913522043377565</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2744,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>0.8412575159535862</v>
+        <v>0.6201578389186224</v>
       </c>
       <c r="E84">
-        <v>1.887706663377447</v>
+        <v>1.875546181140524</v>
       </c>
       <c r="F84">
-        <v>0.1122933366225531</v>
+        <v>0.1244538188594762</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2764,13 +2764,13 @@
         <v>2.5</v>
       </c>
       <c r="D85">
-        <v>0.6697875544056764</v>
+        <v>0.4208554422435284</v>
       </c>
       <c r="E85">
-        <v>2.108338315492313</v>
+        <v>2.094647049323394</v>
       </c>
       <c r="F85">
-        <v>0.3916616845076875</v>
+        <v>0.4053529506766056</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2784,13 +2784,13 @@
         <v>3</v>
       </c>
       <c r="D86">
-        <v>0.2737280423794175</v>
+        <v>0.1836324426354174</v>
       </c>
       <c r="E86">
-        <v>2.547367542330868</v>
+        <v>2.542412284344948</v>
       </c>
       <c r="F86">
-        <v>0.4526324576691318</v>
+        <v>0.4575877156550519</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2804,13 +2804,13 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <v>0.4296013520632691</v>
+        <v>0.5195660646220013</v>
       </c>
       <c r="E87">
-        <v>2.98100307436348</v>
+        <v>2.98595113355421</v>
       </c>
       <c r="F87">
-        <v>0.01899692563651989</v>
+        <v>0.01404886644578962</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2824,13 +2824,13 @@
         <v>3</v>
       </c>
       <c r="D88">
-        <v>0.7339265407623863</v>
+        <v>0.8048296107197039</v>
       </c>
       <c r="E88">
-        <v>2.990178459741931</v>
+        <v>2.994078128589583</v>
       </c>
       <c r="F88">
-        <v>0.009821540258069472</v>
+        <v>0.005921871410417001</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2844,13 +2844,13 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>0.1580927172279978</v>
+        <v>0.2773797160303459</v>
       </c>
       <c r="E89">
-        <v>2.95919509944754</v>
+        <v>2.965755884381669</v>
       </c>
       <c r="F89">
-        <v>0.04080490055246022</v>
+        <v>0.03424411561833107</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2864,13 +2864,13 @@
         <v>3.25</v>
       </c>
       <c r="D90">
-        <v>0.2124045506915806</v>
+        <v>0.2465980742901941</v>
       </c>
       <c r="E90">
-        <v>3.022682250288037</v>
+        <v>3.024562894085961</v>
       </c>
       <c r="F90">
-        <v>0.2273177497119625</v>
+        <v>0.2254371059140388</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2884,13 +2884,13 @@
         <v>3.5</v>
       </c>
       <c r="D91">
-        <v>-0.1114215543270625</v>
+        <v>0.1477328005438316</v>
       </c>
       <c r="E91">
-        <v>3.235621814512012</v>
+        <v>3.249875304029911</v>
       </c>
       <c r="F91">
-        <v>0.2643781854879879</v>
+        <v>0.2501246959700887</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2904,13 +2904,13 @@
         <v>3.75</v>
       </c>
       <c r="D92">
-        <v>0.4252842770515741</v>
+        <v>0.6422461111759148</v>
       </c>
       <c r="E92">
-        <v>3.513765635237837</v>
+        <v>3.525698536114676</v>
       </c>
       <c r="F92">
-        <v>0.2362343647621632</v>
+        <v>0.2243014638853245</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2924,13 +2924,13 @@
         <v>4</v>
       </c>
       <c r="D93">
-        <v>0.5925699454907729</v>
+        <v>0.8073090338842626</v>
       </c>
       <c r="E93">
-        <v>3.763341347001992</v>
+        <v>3.775151996863634</v>
       </c>
       <c r="F93">
-        <v>0.2366586529980084</v>
+        <v>0.2248480031363664</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2944,13 +2944,13 @@
         <v>4.25</v>
       </c>
       <c r="D94">
-        <v>0.5990087996462279</v>
+        <v>0.5711365951036385</v>
       </c>
       <c r="E94">
-        <v>3.994445483980542</v>
+        <v>3.9929125127307</v>
       </c>
       <c r="F94">
-        <v>0.2555545160194579</v>
+        <v>0.2570874872693003</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2964,13 +2964,13 @@
         <v>4.25</v>
       </c>
       <c r="D95">
-        <v>0.01573242177714818</v>
+        <v>-0.1127894458401002</v>
       </c>
       <c r="E95">
-        <v>4.154615283197743</v>
+        <v>4.147546580478795</v>
       </c>
       <c r="F95">
-        <v>0.0953847168022568</v>
+        <v>0.102453419521205</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2984,13 +2984,13 @@
         <v>4.25</v>
       </c>
       <c r="D96">
-        <v>-0.4391675002679563</v>
+        <v>-0.5247729559151537</v>
       </c>
       <c r="E96">
-        <v>4.110345787485262</v>
+        <v>4.105637487424666</v>
       </c>
       <c r="F96">
-        <v>0.1396542125147384</v>
+        <v>0.1443625125753343</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3004,13 +3004,13 @@
         <v>4.25</v>
       </c>
       <c r="D97">
-        <v>-0.413790923416979</v>
+        <v>-0.5391697845828602</v>
       </c>
       <c r="E97">
-        <v>4.114491499212066</v>
+        <v>4.107595661847943</v>
       </c>
       <c r="F97">
-        <v>0.1355085007879335</v>
+        <v>0.1424043381520574</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3024,13 +3024,13 @@
         <v>4.25</v>
       </c>
       <c r="D98">
-        <v>-0.2509771845009112</v>
+        <v>-0.2786280872252966</v>
       </c>
       <c r="E98">
-        <v>4.10282125485245</v>
+        <v>4.101300455202609</v>
       </c>
       <c r="F98">
-        <v>0.1471787451475501</v>
+        <v>0.1486995447973909</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3044,13 +3044,13 @@
         <v>4.25</v>
       </c>
       <c r="D99">
-        <v>-0.6104070645581494</v>
+        <v>-0.6812679588673376</v>
       </c>
       <c r="E99">
-        <v>4.078927611449302</v>
+        <v>4.075030262262296</v>
       </c>
       <c r="F99">
-        <v>0.171072388550698</v>
+        <v>0.1749697377377037</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3064,13 +3064,13 @@
         <v>4.25</v>
       </c>
       <c r="D100">
-        <v>-0.7941051543651767</v>
+        <v>-0.7933997975769103</v>
       </c>
       <c r="E100">
-        <v>4.082574216509915</v>
+        <v>4.08261301113327</v>
       </c>
       <c r="F100">
-        <v>0.167425783490085</v>
+        <v>0.1673869888667303</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3084,13 +3084,13 @@
         <v>4.25</v>
       </c>
       <c r="D101">
-        <v>-0.2291498983129081</v>
+        <v>-0.1143438689043208</v>
       </c>
       <c r="E101">
-        <v>4.13289675559279</v>
+        <v>4.139211087210263</v>
       </c>
       <c r="F101">
-        <v>0.1171032444072102</v>
+        <v>0.1107889127897375</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3104,13 +3104,13 @@
         <v>4.25</v>
       </c>
       <c r="D102">
-        <v>0.1670650776029348</v>
+        <v>0.1853450002966106</v>
       </c>
       <c r="E102">
-        <v>4.125126079268161</v>
+        <v>4.126131475016313</v>
       </c>
       <c r="F102">
-        <v>0.1248739207318392</v>
+        <v>0.1238685249836866</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3124,13 +3124,13 @@
         <v>4.25</v>
       </c>
       <c r="D103">
-        <v>0.5672085982551422</v>
+        <v>0.1815970945954426</v>
       </c>
       <c r="E103">
-        <v>4.127196472904033</v>
+        <v>4.10598784020275</v>
       </c>
       <c r="F103">
-        <v>0.1228035270959671</v>
+        <v>0.1440121597972501</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3144,13 +3144,13 @@
         <v>4.25</v>
       </c>
       <c r="D104">
-        <v>0.3393962215215041</v>
+        <v>-0.07179925434002143</v>
       </c>
       <c r="E104">
-        <v>4.114666792183683</v>
+        <v>4.092051041011299</v>
       </c>
       <c r="F104">
-        <v>0.1353332078163172</v>
+        <v>0.1579489589887011</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3164,13 +3164,13 @@
         <v>4.25</v>
       </c>
       <c r="D105">
-        <v>-0.1411272184673074</v>
+        <v>-0.4540615922527635</v>
       </c>
       <c r="E105">
-        <v>4.121238002984298</v>
+        <v>4.104026612426098</v>
       </c>
       <c r="F105">
-        <v>0.1287619970157019</v>
+        <v>0.1459733875739015</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3184,13 +3184,13 @@
         <v>4.25</v>
       </c>
       <c r="D106">
-        <v>-0.02956913424538854</v>
+        <v>0.05530131836035679</v>
       </c>
       <c r="E106">
-        <v>4.149373697616503</v>
+        <v>4.154041572509819</v>
       </c>
       <c r="F106">
-        <v>0.100626302383497</v>
+        <v>0.09595842749018058</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3204,13 +3204,13 @@
         <v>4.25</v>
       </c>
       <c r="D107">
-        <v>0.01007671311423763</v>
+        <v>0.05000513618478308</v>
       </c>
       <c r="E107">
-        <v>4.146054219221283</v>
+        <v>4.148250282490163</v>
       </c>
       <c r="F107">
-        <v>0.1039457807787167</v>
+        <v>0.1017497175098372</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3224,13 +3224,13 @@
         <v>4.25</v>
       </c>
       <c r="D108">
-        <v>0.8542520987299795</v>
+        <v>0.659909253424118</v>
       </c>
       <c r="E108">
-        <v>4.169108865430148</v>
+        <v>4.158420008938326</v>
       </c>
       <c r="F108">
-        <v>0.08089113456985153</v>
+        <v>0.09157999106167392</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3244,13 +3244,13 @@
         <v>4.25</v>
       </c>
       <c r="D109">
-        <v>0.866992664362165</v>
+        <v>0.6011933030181105</v>
       </c>
       <c r="E109">
-        <v>4.17118459653992</v>
+        <v>4.156565631665996</v>
       </c>
       <c r="F109">
-        <v>0.07881540346008009</v>
+        <v>0.09343436833400354</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3264,13 +3264,13 @@
         <v>4.25</v>
       </c>
       <c r="D110">
-        <v>0.7815862147973363</v>
+        <v>0.6678711307688268</v>
       </c>
       <c r="E110">
-        <v>4.163737241813854</v>
+        <v>4.157482912192286</v>
       </c>
       <c r="F110">
-        <v>0.08626275818614637</v>
+        <v>0.09251708780771395</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3284,13 +3284,13 @@
         <v>4.25</v>
       </c>
       <c r="D111">
-        <v>0.4886244485864388</v>
+        <v>0.5021926290465828</v>
       </c>
       <c r="E111">
-        <v>4.151749344672254</v>
+        <v>4.152495594597562</v>
       </c>
       <c r="F111">
-        <v>0.09825065532774602</v>
+        <v>0.09750440540243765</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3304,13 +3304,13 @@
         <v>4.25</v>
       </c>
       <c r="D112">
-        <v>0.0867879006649197</v>
+        <v>0.1613236678262631</v>
       </c>
       <c r="E112">
-        <v>4.10489833453657</v>
+        <v>4.108997801730444</v>
       </c>
       <c r="F112">
-        <v>0.1451016654634296</v>
+        <v>0.1410021982695557</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3324,13 +3324,13 @@
         <v>4.25</v>
       </c>
       <c r="D113">
-        <v>-0.3923845053289021</v>
+        <v>-0.3285337143148936</v>
       </c>
       <c r="E113">
-        <v>4.049668852206911</v>
+        <v>4.053180645712681</v>
       </c>
       <c r="F113">
-        <v>0.2003311477930891</v>
+        <v>0.1968193542873191</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3344,13 +3344,13 @@
         <v>4.25</v>
       </c>
       <c r="D114">
-        <v>-0.1740125080911703</v>
+        <v>-0.1065191426698142</v>
       </c>
       <c r="E114">
-        <v>4.068554312054986</v>
+        <v>4.072266447153161</v>
       </c>
       <c r="F114">
-        <v>0.1814456879450139</v>
+        <v>0.1777335528468393</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3364,13 +3364,13 @@
         <v>4.25</v>
       </c>
       <c r="D115">
-        <v>-0.01393680904842043</v>
+        <v>0.2417656559376979</v>
       </c>
       <c r="E115">
-        <v>4.074608475502338</v>
+        <v>4.088672111076574</v>
       </c>
       <c r="F115">
-        <v>0.1753915244976625</v>
+        <v>0.1613278889234264</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3384,13 +3384,13 @@
         <v>4.25</v>
       </c>
       <c r="D116">
-        <v>0.5225230237718925</v>
+        <v>0.681907062559084</v>
       </c>
       <c r="E116">
-        <v>4.102051266307454</v>
+        <v>4.11081738844075</v>
       </c>
       <c r="F116">
-        <v>0.1479487336925462</v>
+        <v>0.1391826115592503</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3404,13 +3404,13 @@
         <v>4.25</v>
       </c>
       <c r="D117">
-        <v>0.2773265239258471</v>
+        <v>0.5071268809001772</v>
       </c>
       <c r="E117">
-        <v>4.075502958815921</v>
+        <v>4.088141978449509</v>
       </c>
       <c r="F117">
-        <v>0.1744970411840789</v>
+        <v>0.1618580215504908</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3424,13 +3424,13 @@
         <v>4.25</v>
       </c>
       <c r="D118">
-        <v>0.3095443321631031</v>
+        <v>0.3829275769560603</v>
       </c>
       <c r="E118">
-        <v>4.076587438268971</v>
+        <v>4.080623516732584</v>
       </c>
       <c r="F118">
-        <v>0.1734125617310287</v>
+        <v>0.1693764832674161</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3444,13 +3444,13 @@
         <v>4.25</v>
       </c>
       <c r="D119">
-        <v>0.6471581598137099</v>
+        <v>0.7105785670668219</v>
       </c>
       <c r="E119">
-        <v>4.098593698789754</v>
+        <v>4.102081821188675</v>
       </c>
       <c r="F119">
-        <v>0.1514063012102458</v>
+        <v>0.1479181788113246</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3464,13 +3464,13 @@
         <v>4.25</v>
       </c>
       <c r="D120">
-        <v>1.102269926409694</v>
+        <v>0.9814532286245736</v>
       </c>
       <c r="E120">
-        <v>4.125687345952533</v>
+        <v>4.119042427574351</v>
       </c>
       <c r="F120">
-        <v>0.1243126540474666</v>
+        <v>0.1309575724256486</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3484,13 +3484,13 @@
         <v>4.25</v>
       </c>
       <c r="D121">
-        <v>1.494927415139014</v>
+        <v>1.378269327487747</v>
       </c>
       <c r="E121">
-        <v>4.158971007832645</v>
+        <v>4.152554813011825</v>
       </c>
       <c r="F121">
-        <v>0.09102899216735505</v>
+        <v>0.09744518698817473</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3504,13 +3504,13 @@
         <v>4.25</v>
       </c>
       <c r="D122">
-        <v>1.11456812625832</v>
+        <v>1.010742650200225</v>
       </c>
       <c r="E122">
-        <v>4.157301246944208</v>
+        <v>4.151590845761013</v>
       </c>
       <c r="F122">
-        <v>0.09269875305579234</v>
+        <v>0.09840915423898711</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3524,13 +3524,13 @@
         <v>4.25</v>
       </c>
       <c r="D123">
-        <v>1.132980155109653</v>
+        <v>1.108945561261532</v>
       </c>
       <c r="E123">
-        <v>4.151438908531031</v>
+        <v>4.150117005869384</v>
       </c>
       <c r="F123">
-        <v>0.09856109146896941</v>
+        <v>0.09988299413061608</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3544,13 +3544,13 @@
         <v>4</v>
       </c>
       <c r="D124">
-        <v>1.38731452281089</v>
+        <v>1.403958543236783</v>
       </c>
       <c r="E124">
-        <v>4.161302298754599</v>
+        <v>4.162217719878023</v>
       </c>
       <c r="F124">
-        <v>-0.1613022987545989</v>
+        <v>-0.162217719878023</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3564,13 +3564,13 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>1.614861232810227</v>
+        <v>1.593779485689062</v>
       </c>
       <c r="E125">
-        <v>3.962317367804562</v>
+        <v>3.961157871712898</v>
       </c>
       <c r="F125">
-        <v>0.03768263219543755</v>
+        <v>0.03884212828710165</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3584,13 +3584,13 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>1.342176210533808</v>
+        <v>1.338469448880542</v>
       </c>
       <c r="E126">
-        <v>3.93769469157936</v>
+        <v>3.93749081968843</v>
       </c>
       <c r="F126">
-        <v>0.06230530842063997</v>
+        <v>0.0625091803115696</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3604,13 +3604,13 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>0.9439549285024995</v>
+        <v>1.019438495923186</v>
       </c>
       <c r="E127">
-        <v>3.906167521067637</v>
+        <v>3.910319117275775</v>
       </c>
       <c r="F127">
-        <v>0.09383247893236302</v>
+        <v>0.08968088272422525</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3624,13 +3624,13 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>0.5782073611336536</v>
+        <v>0.7668978746661281</v>
       </c>
       <c r="E128">
-        <v>3.903238904862351</v>
+        <v>3.913616883106637</v>
       </c>
       <c r="F128">
-        <v>0.09676109513764919</v>
+        <v>0.08638311689336309</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3644,13 +3644,13 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>0.5777321191690277</v>
+        <v>0.7309258758597004</v>
       </c>
       <c r="E129">
-        <v>3.913525266554296</v>
+        <v>3.921950923172283</v>
       </c>
       <c r="F129">
-        <v>0.08647473344570367</v>
+        <v>0.07804907682771667</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3664,13 +3664,13 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>-0.04498141813149559</v>
+        <v>0.1063875893242638</v>
       </c>
       <c r="E130">
-        <v>3.882026022002768</v>
+        <v>3.890351317412835</v>
       </c>
       <c r="F130">
-        <v>0.1179739779972317</v>
+        <v>0.109648682587165</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3684,13 +3684,13 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>-0.6113978997325908</v>
+        <v>-0.6085806500002455</v>
       </c>
       <c r="E131">
-        <v>3.860498115514708</v>
+        <v>3.860653064249987</v>
       </c>
       <c r="F131">
-        <v>0.1395018844852922</v>
+        <v>0.1393469357500132</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3704,13 +3704,13 @@
         <v>3.75</v>
       </c>
       <c r="D132">
-        <v>-1.091928606239012</v>
+        <v>-1.037950906889051</v>
       </c>
       <c r="E132">
-        <v>3.829256426656854</v>
+        <v>3.832225200121102</v>
       </c>
       <c r="F132">
-        <v>-0.07925642665685384</v>
+        <v>-0.08222520012110168</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3724,13 +3724,13 @@
         <v>3.75</v>
       </c>
       <c r="D133">
-        <v>-1.106151494134266</v>
+        <v>-1.160054262213173</v>
       </c>
       <c r="E133">
-        <v>3.620411667822615</v>
+        <v>3.617447015578275</v>
       </c>
       <c r="F133">
-        <v>0.1295883321773852</v>
+        <v>0.132552984421725</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3744,13 +3744,13 @@
         <v>3.5</v>
       </c>
       <c r="D134">
-        <v>-0.7555004538172483</v>
+        <v>-0.8311545566725975</v>
       </c>
       <c r="E134">
-        <v>3.617697475040051</v>
+        <v>3.613536499383007</v>
       </c>
       <c r="F134">
-        <v>-0.117697475040051</v>
+        <v>-0.1135364993830068</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3764,13 +3764,13 @@
         <v>3.5</v>
       </c>
       <c r="D135">
-        <v>-0.4720614284408953</v>
+        <v>-0.5929293810053693</v>
       </c>
       <c r="E135">
-        <v>3.402536621435751</v>
+        <v>3.395888884044705</v>
       </c>
       <c r="F135">
-        <v>0.09746337856424914</v>
+        <v>0.1041111159552952</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3784,13 +3784,13 @@
         <v>3.5</v>
       </c>
       <c r="D136">
-        <v>-0.5480020368634264</v>
+        <v>-0.6361385127608976</v>
       </c>
       <c r="E136">
-        <v>3.402484887972512</v>
+        <v>3.397637381798151</v>
       </c>
       <c r="F136">
-        <v>0.09751511202748819</v>
+        <v>0.1023626182018491</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3804,13 +3804,13 @@
         <v>3.5</v>
       </c>
       <c r="D137">
-        <v>-0.9495195137914969</v>
+        <v>-1.009018048789656</v>
       </c>
       <c r="E137">
-        <v>3.359776426741468</v>
+        <v>3.356504007316569</v>
       </c>
       <c r="F137">
-        <v>0.140223573258532</v>
+        <v>0.1434959926834307</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3824,13 +3824,13 @@
         <v>3.25</v>
       </c>
       <c r="D138">
-        <v>-1.381940370863788</v>
+        <v>-1.31526320646671</v>
       </c>
       <c r="E138">
-        <v>3.320180779602492</v>
+        <v>3.323848023644332</v>
       </c>
       <c r="F138">
-        <v>-0.07018077960249247</v>
+        <v>-0.07384802364433174</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3844,13 +3844,13 @@
         <v>3.25</v>
       </c>
       <c r="D139">
-        <v>-1.408500742632501</v>
+        <v>-1.263511856479482</v>
       </c>
       <c r="E139">
-        <v>3.095532459155212</v>
+        <v>3.103506847893629</v>
       </c>
       <c r="F139">
-        <v>0.1544675408447875</v>
+        <v>0.1464931521063715</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3864,13 +3864,13 @@
         <v>3.25</v>
       </c>
       <c r="D140">
-        <v>-0.9493089225399487</v>
+        <v>-0.7483500780010033</v>
       </c>
       <c r="E140">
-        <v>3.155850509260303</v>
+        <v>3.166903245709945</v>
       </c>
       <c r="F140">
-        <v>0.09414949073969714</v>
+        <v>0.08309675429005514</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3884,13 +3884,13 @@
         <v>3.25</v>
       </c>
       <c r="D141">
-        <v>-0.06559775188392791</v>
+        <v>-0.01507129676765473</v>
       </c>
       <c r="E141">
-        <v>3.224392123646383</v>
+        <v>3.227171078677778</v>
       </c>
       <c r="F141">
-        <v>0.02560787635361672</v>
+        <v>0.0228289213222217</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3904,13 +3904,13 @@
         <v>3.25</v>
       </c>
       <c r="D142">
-        <v>-0.5938608562650494</v>
+        <v>-0.4376506694907967</v>
       </c>
       <c r="E142">
-        <v>3.192587652905423</v>
+        <v>3.201179213178007</v>
       </c>
       <c r="F142">
-        <v>0.05741234709457732</v>
+        <v>0.04882078682199342</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3924,13 +3924,13 @@
         <v>3.25</v>
       </c>
       <c r="D143">
-        <v>-0.7425643647645863</v>
+        <v>-0.6280917371558559</v>
       </c>
       <c r="E143">
-        <v>3.198158959937948</v>
+        <v>3.204454954456428</v>
       </c>
       <c r="F143">
-        <v>0.05184104006205237</v>
+        <v>0.04554504554357219</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3944,13 +3944,13 @@
         <v>3.25</v>
       </c>
       <c r="D144">
-        <v>-1.380784934109869</v>
+        <v>-1.190155261152714</v>
       </c>
       <c r="E144">
-        <v>3.185056828623957</v>
+        <v>3.1955414606366</v>
       </c>
       <c r="F144">
-        <v>0.06494317137604311</v>
+        <v>0.05445853936339962</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3964,13 +3964,13 @@
         <v>3.25</v>
       </c>
       <c r="D145">
-        <v>-1.005296780061915</v>
+        <v>-1.02241662620699</v>
       </c>
       <c r="E145">
-        <v>3.222208677096594</v>
+        <v>3.221267085558615</v>
       </c>
       <c r="F145">
-        <v>0.02779132290340591</v>
+        <v>0.02873291444138504</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3984,13 +3984,13 @@
         <v>3.5</v>
       </c>
       <c r="D146">
-        <v>-1.008479569237686</v>
+        <v>-1.072333340720011</v>
       </c>
       <c r="E146">
-        <v>3.257783623691927</v>
+        <v>3.254271666260399</v>
       </c>
       <c r="F146">
-        <v>0.2422163763080727</v>
+        <v>0.2457283337396006</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4004,13 +4004,13 @@
         <v>3.5</v>
       </c>
       <c r="D147">
-        <v>-0.8673955637840791</v>
+        <v>-0.8789596866995986</v>
       </c>
       <c r="E147">
-        <v>3.485293243991875</v>
+        <v>3.484657217231522</v>
       </c>
       <c r="F147">
-        <v>0.01470675600812488</v>
+        <v>0.01534278276847845</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4024,13 +4024,13 @@
         <v>3.5</v>
       </c>
       <c r="D148">
-        <v>-0.5127214350361342</v>
+        <v>-0.5785069628902129</v>
       </c>
       <c r="E148">
-        <v>3.498612821073012</v>
+        <v>3.494994617041038</v>
       </c>
       <c r="F148">
-        <v>0.001387178926987698</v>
+        <v>0.005005382958962024</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4044,13 +4044,13 @@
         <v>3.75</v>
       </c>
       <c r="D149">
-        <v>0.07255860390369406</v>
+        <v>0.004125539269672629</v>
       </c>
       <c r="E149">
-        <v>3.556240723214704</v>
+        <v>3.552476904659832</v>
       </c>
       <c r="F149">
-        <v>0.1937592767852965</v>
+        <v>0.1975230953401677</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4064,13 +4064,13 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>-0.2689436417854019</v>
+        <v>-0.2246439686501844</v>
       </c>
       <c r="E150">
-        <v>3.759064349701802</v>
+        <v>3.761500831724239</v>
       </c>
       <c r="F150">
-        <v>0.2409356502981979</v>
+        <v>0.2384991682757609</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4084,13 +4084,13 @@
         <v>4.25</v>
       </c>
       <c r="D151">
-        <v>0.4837768738411796</v>
+        <v>0.09068349356606831</v>
       </c>
       <c r="E151">
-        <v>4.021107728061264</v>
+        <v>3.999487592146133</v>
       </c>
       <c r="F151">
-        <v>0.2288922719387356</v>
+        <v>0.2505124078538667</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4104,13 +4104,13 @@
         <v>4.25</v>
       </c>
       <c r="D152">
-        <v>0.7192395253193595</v>
+        <v>0.2764594214785809</v>
       </c>
       <c r="E152">
-        <v>4.242808173892564</v>
+        <v>4.218455268181322</v>
       </c>
       <c r="F152">
-        <v>0.007191826107435517</v>
+        <v>0.0315447318186779</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4124,13 +4124,13 @@
         <v>4.25</v>
       </c>
       <c r="D153">
-        <v>0.8099699414279016</v>
+        <v>0.327112594756418</v>
       </c>
       <c r="E153">
-        <v>4.236798346778534</v>
+        <v>4.210241192711603</v>
       </c>
       <c r="F153">
-        <v>0.01320165322146583</v>
+        <v>0.03975880728839698</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4144,13 +4144,13 @@
         <v>4.25</v>
       </c>
       <c r="D154">
-        <v>-0.1992983341739141</v>
+        <v>-0.1826394629800276</v>
       </c>
       <c r="E154">
-        <v>4.174413591620436</v>
+        <v>4.175329829536099</v>
       </c>
       <c r="F154">
-        <v>0.07558640837956432</v>
+        <v>0.07467017046390101</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4164,13 +4164,13 @@
         <v>4.25</v>
       </c>
       <c r="D155">
-        <v>-0.91735538001112</v>
+        <v>-0.7980428996966715</v>
       </c>
       <c r="E155">
-        <v>4.121857954099388</v>
+        <v>4.128420140516683</v>
       </c>
       <c r="F155">
-        <v>0.1281420459006117</v>
+        <v>0.1215798594833171</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4184,13 +4184,13 @@
         <v>4.25</v>
       </c>
       <c r="D156">
-        <v>-0.6986580729900993</v>
+        <v>-0.494934771889266</v>
       </c>
       <c r="E156">
-        <v>4.109480055985544</v>
+        <v>4.12068483754609</v>
       </c>
       <c r="F156">
-        <v>0.1405199440144562</v>
+        <v>0.1293151624539099</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4204,13 +4204,13 @@
         <v>4.25</v>
       </c>
       <c r="D157">
-        <v>-0.05403839445001779</v>
+        <v>0.0284102863086666</v>
       </c>
       <c r="E157">
-        <v>4.10402788830525</v>
+        <v>4.108562565746977</v>
       </c>
       <c r="F157">
-        <v>0.1459721116947499</v>
+        <v>0.1414374342530227</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4224,13 +4224,13 @@
         <v>4.25</v>
       </c>
       <c r="D158">
-        <v>0.1937594154648004</v>
+        <v>0.2032843766264669</v>
       </c>
       <c r="E158">
-        <v>4.100469267850564</v>
+        <v>4.100993140714456</v>
       </c>
       <c r="F158">
-        <v>0.1495307321494357</v>
+        <v>0.149006859285544</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4244,13 +4244,13 @@
         <v>4.25</v>
       </c>
       <c r="D159">
-        <v>-0.1428434087676678</v>
+        <v>-0.2816467586300497</v>
       </c>
       <c r="E159">
-        <v>4.089793612517778</v>
+        <v>4.082159428275348</v>
       </c>
       <c r="F159">
-        <v>0.1602063874822219</v>
+        <v>0.1678405717246525</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4264,13 +4264,13 @@
         <v>4.25</v>
       </c>
       <c r="D160">
-        <v>-0.4437097350044716</v>
+        <v>-0.524244591416867</v>
       </c>
       <c r="E160">
-        <v>4.105970964574754</v>
+        <v>4.101541547472072</v>
       </c>
       <c r="F160">
-        <v>0.1440290354252465</v>
+        <v>0.1484584525279278</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4284,13 +4284,13 @@
         <v>4.25</v>
       </c>
       <c r="D161">
-        <v>-0.2049937747571562</v>
+        <v>-0.2952747748917517</v>
       </c>
       <c r="E161">
-        <v>4.117725342388357</v>
+        <v>4.112759887380954</v>
       </c>
       <c r="F161">
-        <v>0.1322746576116431</v>
+        <v>0.1372401126190459</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4304,13 +4304,13 @@
         <v>4.25</v>
       </c>
       <c r="D162">
-        <v>0.3909914059375019</v>
+        <v>0.2051639483455325</v>
       </c>
       <c r="E162">
-        <v>4.150848277326562</v>
+        <v>4.140627767159004</v>
       </c>
       <c r="F162">
-        <v>0.09915172267343753</v>
+        <v>0.1093722328409958</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4324,13 +4324,13 @@
         <v>4.25</v>
       </c>
       <c r="D163">
-        <v>0.3180915602939649</v>
+        <v>0.3178367332215437</v>
       </c>
       <c r="E163">
-        <v>4.147870035816168</v>
+        <v>4.147856020327184</v>
       </c>
       <c r="F163">
-        <v>0.102129964183832</v>
+        <v>0.1021439796728156</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4344,13 +4344,13 @@
         <v>4.25</v>
       </c>
       <c r="D164">
-        <v>-0.6088769401154437</v>
+        <v>-0.5023131261511438</v>
       </c>
       <c r="E164">
-        <v>4.109949268293651</v>
+        <v>4.115810278061687</v>
       </c>
       <c r="F164">
-        <v>0.1400507317063493</v>
+        <v>0.1341897219383128</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4364,13 +4364,13 @@
         <v>4.25</v>
       </c>
       <c r="D165">
-        <v>-1.358794334859947</v>
+        <v>-1.057278369307024</v>
       </c>
       <c r="E165">
-        <v>4.081766311582704</v>
+        <v>4.098349689688114</v>
       </c>
       <c r="F165">
-        <v>0.1682336884172964</v>
+        <v>0.1516503103118856</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4384,13 +4384,13 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <v>-1.454223800490073</v>
+        <v>-1.313531653851197</v>
       </c>
       <c r="E166">
-        <v>4.058023940973046</v>
+        <v>4.065762009038184</v>
       </c>
       <c r="F166">
-        <v>-0.05802394097304564</v>
+        <v>-0.06576200903818386</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4404,13 +4404,13 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <v>-0.6410804103382794</v>
+        <v>-0.5375644522845668</v>
       </c>
       <c r="E167">
-        <v>3.869178077431395</v>
+        <v>3.874871455124349</v>
       </c>
       <c r="F167">
-        <v>0.1308219225686051</v>
+        <v>0.1251285448756509</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4424,13 +4424,13 @@
         <v>3.75</v>
       </c>
       <c r="D168">
-        <v>-0.3317542890290071</v>
+        <v>-0.2561118656176475</v>
       </c>
       <c r="E168">
-        <v>3.869347264103405</v>
+        <v>3.87350759739103</v>
       </c>
       <c r="F168">
-        <v>-0.1193472641034052</v>
+        <v>-0.12350759739103</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4444,13 +4444,13 @@
         <v>3.75</v>
       </c>
       <c r="D169">
-        <v>0.135652872976344</v>
+        <v>0.1097465277341669</v>
       </c>
       <c r="E169">
-        <v>3.663960908013698</v>
+        <v>3.662536059025379</v>
       </c>
       <c r="F169">
-        <v>0.08603909198630166</v>
+        <v>0.0874639409746214</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4464,13 +4464,13 @@
         <v>3.5</v>
       </c>
       <c r="D170">
-        <v>0.2084225619023883</v>
+        <v>0.1922209154969323</v>
       </c>
       <c r="E170">
-        <v>3.679994490904631</v>
+        <v>3.679103400352331</v>
       </c>
       <c r="F170">
-        <v>-0.1799944909046314</v>
+        <v>-0.1791034003523313</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4484,13 +4484,13 @@
         <v>3.5</v>
       </c>
       <c r="D171">
-        <v>0.3408500124366221</v>
+        <v>0.1476438008578107</v>
       </c>
       <c r="E171">
-        <v>3.441059250684015</v>
+        <v>3.43043290904718</v>
       </c>
       <c r="F171">
-        <v>0.05894074931598547</v>
+        <v>0.0695670909528201</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4504,13 +4504,13 @@
         <v>3.25</v>
       </c>
       <c r="D172">
-        <v>-0.1274545478501921</v>
+        <v>-0.2588300642189623</v>
       </c>
       <c r="E172">
-        <v>3.384364999868239</v>
+        <v>3.377139346467957</v>
       </c>
       <c r="F172">
-        <v>-0.1343649998682395</v>
+        <v>-0.1271393464679571</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4524,13 +4524,13 @@
         <v>3.25</v>
       </c>
       <c r="D173">
-        <v>-0.4592798244389407</v>
+        <v>-0.4846553222778383</v>
       </c>
       <c r="E173">
-        <v>3.114739609655858</v>
+        <v>3.113343957274719</v>
       </c>
       <c r="F173">
-        <v>0.1352603903441416</v>
+        <v>0.136656042725281</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4544,13 +4544,13 @@
         <v>3</v>
       </c>
       <c r="D174">
-        <v>0.005194151654031032</v>
+        <v>-0.002164462460374494</v>
       </c>
       <c r="E174">
-        <v>3.127910678340972</v>
+        <v>3.12750595456468</v>
       </c>
       <c r="F174">
-        <v>-0.1279106783409718</v>
+        <v>-0.1275059545646795</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4564,13 +4564,13 @@
         <v>3</v>
       </c>
       <c r="D175">
-        <v>0.2714937415857932</v>
+        <v>0.4789950590522452</v>
       </c>
       <c r="E175">
-        <v>2.913869655787218</v>
+        <v>2.925282228247873</v>
       </c>
       <c r="F175">
-        <v>0.08613034421278165</v>
+        <v>0.07471777175212679</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4584,13 +4584,13 @@
         <v>2.75</v>
       </c>
       <c r="D176">
-        <v>0.7583886817910113</v>
+        <v>0.9528165618212903</v>
       </c>
       <c r="E176">
-        <v>2.939617627498506</v>
+        <v>2.950311160900171</v>
       </c>
       <c r="F176">
-        <v>-0.1896176274985057</v>
+        <v>-0.2003111609001706</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4604,13 +4604,13 @@
         <v>2.75</v>
       </c>
       <c r="D177">
-        <v>1.364413734883119</v>
+        <v>1.734898487653691</v>
       </c>
       <c r="E177">
-        <v>2.748042755418572</v>
+        <v>2.768419416820954</v>
       </c>
       <c r="F177">
-        <v>0.001957244581427542</v>
+        <v>-0.01841941682095394</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4624,13 +4624,13 @@
         <v>2.75</v>
       </c>
       <c r="D178">
-        <v>2.597283467553524</v>
+        <v>2.756609099122276</v>
       </c>
       <c r="E178">
-        <v>2.824100590715445</v>
+        <v>2.832863500451726</v>
       </c>
       <c r="F178">
-        <v>-0.07410059071544461</v>
+        <v>-0.08286350045172597</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4644,13 +4644,13 @@
         <v>2.75</v>
       </c>
       <c r="D179">
-        <v>2.528206777274988</v>
+        <v>2.681565755277937</v>
       </c>
       <c r="E179">
-        <v>2.829926372750124</v>
+        <v>2.838361116540287</v>
       </c>
       <c r="F179">
-        <v>-0.07992637275012449</v>
+        <v>-0.08836111654028667</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4664,13 +4664,13 @@
         <v>2.75</v>
       </c>
       <c r="D180">
-        <v>1.705197140042447</v>
+        <v>1.665541066683396</v>
       </c>
       <c r="E180">
-        <v>2.793563967702334</v>
+        <v>2.791382883667586</v>
       </c>
       <c r="F180">
-        <v>-0.04356396770233406</v>
+        <v>-0.04138288366758625</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4684,13 +4684,13 @@
         <v>2.75</v>
       </c>
       <c r="D181">
-        <v>0.9549982003676405</v>
+        <v>0.8385395848335975</v>
       </c>
       <c r="E181">
-        <v>2.762649901020221</v>
+        <v>2.756244677165848</v>
       </c>
       <c r="F181">
-        <v>-0.01264990102022079</v>
+        <v>-0.006244677165848422</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4704,13 +4704,13 @@
         <v>2.75</v>
       </c>
       <c r="D182">
-        <v>1.248796432259702</v>
+        <v>1.133917825291686</v>
       </c>
       <c r="E182">
-        <v>2.786371303774284</v>
+        <v>2.780052980391043</v>
       </c>
       <c r="F182">
-        <v>-0.03637130377428388</v>
+        <v>-0.03005298039104298</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4724,13 +4724,13 @@
         <v>2.75</v>
       </c>
       <c r="D183">
-        <v>1.962023973182259</v>
+        <v>1.812697354123749</v>
       </c>
       <c r="E183">
-        <v>2.825736318525024</v>
+        <v>2.817523354476806</v>
       </c>
       <c r="F183">
-        <v>-0.07573631852502372</v>
+        <v>-0.06752335447680569</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4744,13 +4744,13 @@
         <v>2.75</v>
       </c>
       <c r="D184">
-        <v>2.515906519177236</v>
+        <v>2.41025207959229</v>
       </c>
       <c r="E184">
-        <v>2.862249858554748</v>
+        <v>2.856438864377576</v>
       </c>
       <c r="F184">
-        <v>-0.112249858554748</v>
+        <v>-0.106438864377576</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4764,13 +4764,13 @@
         <v>2.75</v>
       </c>
       <c r="D185">
-        <v>3.041939613763578</v>
+        <v>2.854750725391142</v>
       </c>
       <c r="E185">
-        <v>2.895306678756997</v>
+        <v>2.885011289896513</v>
       </c>
       <c r="F185">
-        <v>-0.145306678756997</v>
+        <v>-0.135011289896513</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4784,13 +4784,13 @@
         <v>2.75</v>
       </c>
       <c r="D186">
-        <v>2.929039025637259</v>
+        <v>2.799030381646883</v>
       </c>
       <c r="E186">
-        <v>2.885315896410049</v>
+        <v>2.878165420990578</v>
       </c>
       <c r="F186">
-        <v>-0.1353158964100487</v>
+        <v>-0.1281654209905785</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4804,13 +4804,13 @@
         <v>2.75</v>
       </c>
       <c r="D187">
-        <v>2.438998717867946</v>
+        <v>2.583118409443852</v>
       </c>
       <c r="E187">
-        <v>2.845644929482737</v>
+        <v>2.853571512519412</v>
       </c>
       <c r="F187">
-        <v>-0.09564492948273706</v>
+        <v>-0.1035715125194119</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4824,13 +4824,13 @@
         <v>2.75</v>
       </c>
       <c r="D188">
-        <v>2.305180673484397</v>
+        <v>2.75903424858317</v>
       </c>
       <c r="E188">
-        <v>2.826734937041642</v>
+        <v>2.851696883672075</v>
       </c>
       <c r="F188">
-        <v>-0.07673493704164214</v>
+        <v>-0.1016968836720746</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4844,13 +4844,13 @@
         <v>2.75</v>
       </c>
       <c r="D189">
-        <v>2.997760986200682</v>
+        <v>3.530309862609382</v>
       </c>
       <c r="E189">
-        <v>2.873076854241038</v>
+        <v>2.902367042443516</v>
       </c>
       <c r="F189">
-        <v>-0.1230768542410376</v>
+        <v>-0.1523670424435162</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4864,13 +4864,13 @@
         <v>2.75</v>
       </c>
       <c r="D190">
-        <v>3.922946605275612</v>
+        <v>4.219639371756667</v>
       </c>
       <c r="E190">
-        <v>2.938949563290159</v>
+        <v>2.955267665446616</v>
       </c>
       <c r="F190">
-        <v>-0.1889495632901586</v>
+        <v>-0.2052676654466161</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4884,13 +4884,13 @@
         <v>2.75</v>
       </c>
       <c r="D191">
-        <v>4.250180748928578</v>
+        <v>4.33191106520221</v>
       </c>
       <c r="E191">
-        <v>2.957634941191072</v>
+        <v>2.962130108586122</v>
       </c>
       <c r="F191">
-        <v>-0.2076349411910718</v>
+        <v>-0.2121301085861216</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4904,13 +4904,13 @@
         <v>2.75</v>
       </c>
       <c r="D192">
-        <v>4.336620976254046</v>
+        <v>4.303564708036856</v>
       </c>
       <c r="E192">
-        <v>2.937295403693973</v>
+        <v>2.935477308942028</v>
       </c>
       <c r="F192">
-        <v>-0.1872954036939731</v>
+        <v>-0.1854773089420276</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4924,13 +4924,13 @@
         <v>2.5</v>
       </c>
       <c r="D193">
-        <v>4.690558359274011</v>
+        <v>4.645550807665089</v>
       </c>
       <c r="E193">
-        <v>2.952980709760071</v>
+        <v>2.95050529442158</v>
       </c>
       <c r="F193">
-        <v>-0.4529807097600709</v>
+        <v>-0.4505052944215802</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4944,13 +4944,13 @@
         <v>2.5</v>
       </c>
       <c r="D194">
-        <v>4.961921693799187</v>
+        <v>4.799025248176125</v>
       </c>
       <c r="E194">
-        <v>2.730968193158955</v>
+        <v>2.722008888649687</v>
       </c>
       <c r="F194">
-        <v>-0.2309681931589553</v>
+        <v>-0.2220088886496869</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4964,13 +4964,13 @@
         <v>2.5</v>
       </c>
       <c r="D195">
-        <v>5.369338539432889</v>
+        <v>5.134396353050175</v>
       </c>
       <c r="E195">
-        <v>2.75612611966881</v>
+        <v>2.74320429941776</v>
       </c>
       <c r="F195">
-        <v>-0.2561261196688096</v>
+        <v>-0.2432042994177603</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4984,13 +4984,13 @@
         <v>2.25</v>
       </c>
       <c r="D196">
-        <v>5.543016954081637</v>
+        <v>5.349304752230211</v>
       </c>
       <c r="E196">
-        <v>2.75811593247449</v>
+        <v>2.747461761372661</v>
       </c>
       <c r="F196">
-        <v>-0.5081159324744897</v>
+        <v>-0.4974617613726613</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5004,13 +5004,13 @@
         <v>2.25</v>
       </c>
       <c r="D197">
-        <v>5.666279521743878</v>
+        <v>5.394333971387777</v>
       </c>
       <c r="E197">
-        <v>2.549270373695913</v>
+        <v>2.534313368426328</v>
       </c>
       <c r="F197">
-        <v>-0.2992703736959132</v>
+        <v>-0.2843133684263277</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5024,13 +5024,13 @@
         <v>2.25</v>
       </c>
       <c r="D198">
-        <v>5.699733683301922</v>
+        <v>5.517272237757265</v>
       </c>
       <c r="E198">
-        <v>2.521547852581605</v>
+        <v>2.511512473076649</v>
       </c>
       <c r="F198">
-        <v>-0.2715478525816053</v>
+        <v>-0.2615124730766487</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5044,13 +5044,13 @@
         <v>2.25</v>
       </c>
       <c r="D199">
-        <v>5.783359854242409</v>
+        <v>5.305184206656488</v>
       </c>
       <c r="E199">
-        <v>2.522709791983333</v>
+        <v>2.496410131366107</v>
       </c>
       <c r="F199">
-        <v>-0.2727097919833326</v>
+        <v>-0.2464101313661069</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5064,13 +5064,13 @@
         <v>1.25</v>
       </c>
       <c r="D200">
-        <v>-0.6703262740932914</v>
+        <v>-0.8271409574324373</v>
       </c>
       <c r="E200">
-        <v>2.166725804924869</v>
+        <v>2.158100997341216</v>
       </c>
       <c r="F200">
-        <v>-0.916725804924869</v>
+        <v>-0.908100997341216</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5084,13 +5084,13 @@
         <v>0.25</v>
       </c>
       <c r="D201">
-        <v>-15.82374710676486</v>
+        <v>-15.82610682489447</v>
       </c>
       <c r="E201">
-        <v>0.3590689091279321</v>
+        <v>0.3589391246308037</v>
       </c>
       <c r="F201">
-        <v>-0.1090689091279321</v>
+        <v>-0.1089391246308037</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5104,7 +5104,7 @@
         <v>0.25</v>
       </c>
       <c r="D202">
-        <v>-30.77007327031733</v>
+        <v>-30.16989975831539</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>0.25</v>
       </c>
       <c r="D203">
-        <v>-30.72027150855421</v>
+        <v>-30.45664205204952</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -5144,7 +5144,7 @@
         <v>0.25</v>
       </c>
       <c r="D204">
-        <v>-18.39330927485943</v>
+        <v>-18.27322996219056</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>0.25</v>
       </c>
       <c r="D205">
-        <v>-8.881673908861476</v>
+        <v>-9.004888116005993</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -5184,13 +5184,13 @@
         <v>0.25</v>
       </c>
       <c r="D206">
-        <v>-4.400044965838745</v>
+        <v>-4.676309369422427</v>
       </c>
       <c r="E206">
-        <v>0.09496627687886902</v>
+        <v>0.07977173468176654</v>
       </c>
       <c r="F206">
-        <v>0.155033723121131</v>
+        <v>0.1702282653182335</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5204,13 +5204,13 @@
         <v>0.25</v>
       </c>
       <c r="D207">
-        <v>-1.403931641511402</v>
+        <v>-1.786118006224147</v>
       </c>
       <c r="E207">
-        <v>0.2800337597168734</v>
+        <v>0.2590135096576725</v>
       </c>
       <c r="F207">
-        <v>-0.03003375971687344</v>
+        <v>-0.009013509657672503</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5224,13 +5224,13 @@
         <v>0.25</v>
       </c>
       <c r="D208">
-        <v>0.9701150155907889</v>
+        <v>0.5376892157848978</v>
       </c>
       <c r="E208">
-        <v>0.4216063258574928</v>
+        <v>0.3978229068681688</v>
       </c>
       <c r="F208">
-        <v>-0.1716063258574928</v>
+        <v>-0.1478229068681688</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5244,13 +5244,13 @@
         <v>0.25</v>
       </c>
       <c r="D209">
-        <v>3.197918418181001</v>
+        <v>2.799744407576554</v>
       </c>
       <c r="E209">
-        <v>0.571223012999955</v>
+        <v>0.5493234424167105</v>
       </c>
       <c r="F209">
-        <v>-0.321223012999955</v>
+        <v>-0.2993234424167105</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5264,13 +5264,13 @@
         <v>0.25</v>
       </c>
       <c r="D210">
-        <v>3.763034416242572</v>
+        <v>3.581158054168299</v>
       </c>
       <c r="E210">
-        <v>0.6236856428933409</v>
+        <v>0.6136824429792559</v>
       </c>
       <c r="F210">
-        <v>-0.3736856428933409</v>
+        <v>-0.3636824429792559</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5284,13 +5284,13 @@
         <v>0.25</v>
       </c>
       <c r="D211">
-        <v>3.066442784972878</v>
+        <v>3.21465709451747</v>
       </c>
       <c r="E211">
-        <v>0.6070293531735077</v>
+        <v>0.6151811401984603</v>
       </c>
       <c r="F211">
-        <v>-0.3570293531735077</v>
+        <v>-0.3651811401984603</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5304,13 +5304,13 @@
         <v>0.25</v>
       </c>
       <c r="D212">
-        <v>1.567388644732581</v>
+        <v>2.086030872760247</v>
       </c>
       <c r="E212">
-        <v>0.5350657504602919</v>
+        <v>0.5635910730018135</v>
       </c>
       <c r="F212">
-        <v>-0.2850657504602919</v>
+        <v>-0.3135910730018135</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5324,13 +5324,13 @@
         <v>0.25</v>
       </c>
       <c r="D213">
-        <v>0.3436219451039335</v>
+        <v>0.9437242686172631</v>
       </c>
       <c r="E213">
-        <v>0.4888992069807163</v>
+        <v>0.5219048347739494</v>
       </c>
       <c r="F213">
-        <v>-0.2388992069807163</v>
+        <v>-0.2719048347739494</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5344,13 +5344,13 @@
         <v>0.25</v>
       </c>
       <c r="D214">
-        <v>0.86917804022697</v>
+        <v>1.34648052522035</v>
       </c>
       <c r="E214">
-        <v>0.5387735422124827</v>
+        <v>0.5650251788871187</v>
       </c>
       <c r="F214">
-        <v>-0.2887735422124827</v>
+        <v>-0.3150251788871187</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5364,13 +5364,13 @@
         <v>0.25</v>
       </c>
       <c r="D215">
-        <v>1.615765175671591</v>
+        <v>1.789137432176169</v>
       </c>
       <c r="E215">
-        <v>0.6083670846619375</v>
+        <v>0.6179025587696892</v>
       </c>
       <c r="F215">
-        <v>-0.3583670846619375</v>
+        <v>-0.3679025587696892</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5384,13 +5384,13 @@
         <v>0.25</v>
       </c>
       <c r="D216">
-        <v>2.433089596221993</v>
+        <v>2.486360552634181</v>
       </c>
       <c r="E216">
-        <v>0.7234449277922096</v>
+        <v>0.7263748303948799</v>
       </c>
       <c r="F216">
-        <v>-0.4734449277922096</v>
+        <v>-0.4763748303948799</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5404,13 +5404,13 @@
         <v>0.5</v>
       </c>
       <c r="D217">
-        <v>2.890856012643273</v>
+        <v>2.724163463431584</v>
       </c>
       <c r="E217">
-        <v>0.7565970806953793</v>
+        <v>0.7474289904887365</v>
       </c>
       <c r="F217">
-        <v>-0.2565970806953793</v>
+        <v>-0.2474289904887365</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5424,13 +5424,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3.417635754483594</v>
+        <v>3.05723974999994</v>
       </c>
       <c r="E218">
-        <v>1.101157466496598</v>
+        <v>1.081335686249997</v>
       </c>
       <c r="F218">
-        <v>-0.1011574664965977</v>
+        <v>-0.08133568624999676</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5444,13 +5444,13 @@
         <v>1.5</v>
       </c>
       <c r="D219">
-        <v>3.61475802016944</v>
+        <v>3.086290909508804</v>
       </c>
       <c r="E219">
-        <v>1.553011691109319</v>
+        <v>1.523946000022984</v>
       </c>
       <c r="F219">
-        <v>-0.05301169110931858</v>
+        <v>-0.02394600002298364</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5464,13 +5464,13 @@
         <v>2</v>
       </c>
       <c r="D220">
-        <v>3.269913386570256</v>
+        <v>2.727211995361234</v>
       </c>
       <c r="E220">
-        <v>1.995407736261364</v>
+        <v>1.965559159744868</v>
       </c>
       <c r="F220">
-        <v>0.004592263738635971</v>
+        <v>0.03444084025513217</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5484,13 +5484,13 @@
         <v>2.5</v>
       </c>
       <c r="D221">
-        <v>2.785364451850825</v>
+        <v>2.306126075449022</v>
       </c>
       <c r="E221">
-        <v>2.407570044851795</v>
+        <v>2.381211934149696</v>
       </c>
       <c r="F221">
-        <v>0.09242995514820462</v>
+        <v>0.1187880658503038</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5504,13 +5504,13 @@
         <v>3</v>
       </c>
       <c r="D222">
-        <v>2.563101283299041</v>
+        <v>2.180577795827432</v>
       </c>
       <c r="E222">
-        <v>2.848939320581447</v>
+        <v>2.827900528770508</v>
       </c>
       <c r="F222">
-        <v>0.1510606794185532</v>
+        <v>0.1720994712294917</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5524,13 +5524,13 @@
         <v>3.5</v>
       </c>
       <c r="D223">
-        <v>2.12188761826253</v>
+        <v>2.051269693380586</v>
       </c>
       <c r="E223">
-        <v>3.273453819004439</v>
+        <v>3.269569833135932</v>
       </c>
       <c r="F223">
-        <v>0.2265461809955611</v>
+        <v>0.230430166864068</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5544,13 +5544,13 @@
         <v>4</v>
       </c>
       <c r="D224">
-        <v>1.17201149715207</v>
+        <v>1.559817379341766</v>
       </c>
       <c r="E224">
-        <v>3.771398132343364</v>
+        <v>3.792727455863798</v>
       </c>
       <c r="F224">
-        <v>0.2286018676566357</v>
+        <v>0.2072725441362024</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5564,13 +5564,13 @@
         <v>4.5</v>
       </c>
       <c r="D225">
-        <v>0.2600116529519525</v>
+        <v>0.9671120931153965</v>
       </c>
       <c r="E225">
-        <v>4.204050640912358</v>
+        <v>4.242941165121348</v>
       </c>
       <c r="F225">
-        <v>0.2959493590876416</v>
+        <v>0.2570588348786522</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5584,13 +5584,13 @@
         <v>5</v>
       </c>
       <c r="D226">
-        <v>-0.01167759999560758</v>
+        <v>0.5317138072258309</v>
       </c>
       <c r="E226">
-        <v>4.678451482000241</v>
+        <v>4.708338009397421</v>
       </c>
       <c r="F226">
-        <v>0.3215485179997586</v>
+        <v>0.291661990602579</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5604,13 +5604,13 @@
         <v>5.5</v>
       </c>
       <c r="D227">
-        <v>0.6074436811795536</v>
+        <v>0.7551164446581105</v>
       </c>
       <c r="E227">
-        <v>5.234159402464876</v>
+        <v>5.242281404456196</v>
       </c>
       <c r="F227">
-        <v>0.2658405975351243</v>
+        <v>0.2577185955438042</v>
       </c>
     </row>
   </sheetData>
